--- a/backend/static/rawdata/6/data.xlsx
+++ b/backend/static/rawdata/6/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B164"/>
+  <dimension ref="A1:B163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1697</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1033</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>432</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>668</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>616</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1694</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>397</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>216</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>668</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>808</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1087</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1577</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>318</v>
+        <v>970</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>969</v>
+        <v>827</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>535</v>
+        <v>704</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>590</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1447</v>
+        <v>605</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>397</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1026</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>360</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>945</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>848</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1151</v>
+        <v>694</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>983</v>
+        <v>912</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1537</v>
+        <v>574</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>482</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>489</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>778</v>
+        <v>457</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>617</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>399</v>
+        <v>488</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>157</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>77</v>
+        <v>517</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2706</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>696</v>
+        <v>537</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>190</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>918</v>
+        <v>706</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1657</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>127</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>370</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>203</v>
+        <v>337</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>440</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1204</v>
+        <v>985</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>424</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1276</v>
+        <v>795</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>843</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>574</v>
+        <v>437</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1060</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>585</v>
+        <v>758</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>139</v>
+        <v>792</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>624</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1213</v>
+        <v>536</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2077</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>539</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1667</v>
+        <v>622</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>277</v>
+        <v>679</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>363</v>
+        <v>667</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>525</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1210</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>998</v>
+        <v>765</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>908</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>800</v>
+        <v>998</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>610</v>
+        <v>448</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1630</v>
+        <v>655</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>427</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2346</v>
+        <v>556</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>819</v>
+        <v>753</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>217</v>
+        <v>992</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1413</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1158</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>616</v>
+        <v>877</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>674</v>
+        <v>575</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>595</v>
+        <v>628</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>669</v>
+        <v>424</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>173</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1364</v>
+        <v>285</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>671</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1125</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2831</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>296</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>903</v>
+        <v>466</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>694</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>742</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1090</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>915</v>
+        <v>712</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>676</v>
+        <v>979</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1070</v>
+        <v>608</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1477</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1738</v>
+        <v>565</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1429</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1280</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3247</v>
+        <v>416</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1528</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1652</v>
+        <v>980</v>
       </c>
     </row>
     <row r="102">
@@ -1452,627 +1452,617 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>908</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>212</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-02</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>663</v>
+        <v>277</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1515</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-04</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>467</v>
+        <v>528</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>37</v>
+        <v>420</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-06</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1007</v>
+        <v>373</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>284</v>
+        <v>545</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>545</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-09</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>497</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>2024-10-10</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>729</v>
+        <v>850</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2024-10-12</t>
+          <t>2024-10-11</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>356</v>
+        <v>848</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2024-10-13</t>
+          <t>2024-10-12</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>487</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-13</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2540</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-14</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>401</v>
+        <v>237</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-15</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>393</v>
+        <v>510</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-16</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2894</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-17</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1725</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>658</v>
+        <v>4165</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>999</v>
+        <v>550</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-20</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>558</v>
+        <v>84</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>326</v>
+        <v>198</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>525</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>728</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1137</v>
+        <v>493</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>149</v>
+        <v>756</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-26</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>656</v>
+        <v>624</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-10-27</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>798</v>
+        <v>107</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>671</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>173</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>276</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-10-31</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1273</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>193</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2024-11-03</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-03</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>301</v>
+        <v>789</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1786</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-05</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1147</v>
+        <v>342</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1456</v>
+        <v>146</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>134</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>523</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>302</v>
+        <v>275</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2024-11-11</t>
+          <t>2024-11-10</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>222</v>
+        <v>594</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-11-11</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>679</v>
+        <v>559</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>542</v>
+        <v>300</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1174</v>
+        <v>55</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>792</v>
+        <v>37</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>849</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>75</v>
+        <v>39</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1303</v>
+        <v>43</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1151</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2024-12-08</t>
+          <t>2024-12-07</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>696</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2024-12-09</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1585</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-09</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>158</v>
+        <v>28</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1911</v>
+        <v>32</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>2086</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2024-12-14</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>693</v>
+        <v>35</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2024-12-14</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>107</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-15</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>425</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>993</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>671</v>
+        <v>29</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
